--- a/clientes 2017.xlsx
+++ b/clientes 2017.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\headsystems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59ED8303-7BB3-45E5-AFBB-148F61E3702C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4030205A-FE25-4435-87FC-1DFF70A1F459}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="14112" windowHeight="5580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="14112" windowHeight="5580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="237">
   <si>
     <t>Domain:</t>
   </si>
@@ -731,6 +731,12 @@
   </si>
   <si>
     <t>gdbb3545f</t>
+  </si>
+  <si>
+    <t>Ingesac2019.</t>
+  </si>
+  <si>
+    <t>Clave correo</t>
   </si>
 </sst>
 </file>
@@ -3428,10 +3434,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3439,7 +3445,7 @@
     <col min="1" max="1" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3480,8 +3486,11 @@
       <c r="N1" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.3">
+      <c r="T1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -3517,7 +3526,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -3553,7 +3562,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -3589,7 +3598,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="45" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -3640,7 +3649,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="45" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -3686,7 +3695,7 @@
       </c>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:17" ht="45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="45" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
@@ -3732,7 +3741,7 @@
       </c>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -3768,7 +3777,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="45" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>179</v>
       </c>
@@ -3816,7 +3825,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="45" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>53</v>
       </c>
@@ -3862,7 +3871,7 @@
       </c>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>57</v>
       </c>
@@ -3898,7 +3907,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>61</v>
       </c>
@@ -3934,7 +3943,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="45" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>66</v>
       </c>
@@ -3985,7 +3994,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>71</v>
       </c>
@@ -4021,7 +4030,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>74</v>
       </c>
@@ -4060,7 +4069,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>78</v>
       </c>
@@ -4096,7 +4105,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>82</v>
       </c>
@@ -4132,7 +4141,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="45" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>85</v>
       </c>
@@ -4178,7 +4187,7 @@
       </c>
       <c r="P18" s="4"/>
     </row>
-    <row r="19" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>89</v>
       </c>
@@ -4214,7 +4223,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>93</v>
       </c>
@@ -4250,7 +4259,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>98</v>
       </c>
@@ -4286,7 +4295,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>176</v>
       </c>
@@ -4334,7 +4343,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>104</v>
       </c>
@@ -4370,7 +4379,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>108</v>
       </c>
@@ -4412,7 +4421,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>112</v>
       </c>
@@ -4451,7 +4460,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="45" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>116</v>
       </c>
@@ -4505,8 +4514,11 @@
       <c r="S26" s="4" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.3">
+      <c r="T26" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>120</v>
       </c>
@@ -4542,7 +4554,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>125</v>
       </c>
@@ -4578,7 +4590,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>128</v>
       </c>
@@ -4617,7 +4629,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="45" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>132</v>
       </c>
@@ -4666,7 +4678,7 @@
       </c>
       <c r="Q30" s="2"/>
     </row>
-    <row r="31" spans="1:19" ht="45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="45" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>136</v>
       </c>
@@ -4712,7 +4724,7 @@
       </c>
       <c r="P31" s="7"/>
     </row>
-    <row r="32" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>138</v>
       </c>
@@ -5178,8 +5190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:Z21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
